--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.11_blauwNuVerwijderd.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.11_blauwNuVerwijderd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{489B92F8-A31B-4C6C-89FC-335B43360E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC644438-9214-4DB3-A3E2-4FB43E2DF43E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
   <sheets>
     <sheet name="TotaalOverzicht" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9177" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9177" uniqueCount="734">
   <si>
     <t>ID</t>
   </si>
@@ -2272,6 +2272,12 @@
   </si>
   <si>
     <t>Eenheid mag alleen voorkomen bij een Norm met de normwaarden van het type kwantitatief.</t>
+  </si>
+  <si>
+    <t>TPOD0860 (dubbel van 0820)</t>
+  </si>
+  <si>
+    <t>TPOD0870 (dubbel met 830 t/m 851)</t>
   </si>
 </sst>
 </file>
@@ -2363,7 +2369,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2391,12 +2397,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2577,7 +2577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2740,9 +2740,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25136,8 +25133,8 @@
   <dimension ref="A1:Y94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -28312,8 +28309,8 @@
       <c r="A42" s="42" t="s">
         <v>699</v>
       </c>
-      <c r="B42" s="28" t="s">
-        <v>576</v>
+      <c r="B42" s="60" t="s">
+        <v>732</v>
       </c>
       <c r="C42" s="43" t="s">
         <v>90</v>
@@ -28389,8 +28386,8 @@
       <c r="A43" s="42" t="s">
         <v>704</v>
       </c>
-      <c r="B43" s="28" t="s">
-        <v>557</v>
+      <c r="B43" s="60" t="s">
+        <v>733</v>
       </c>
       <c r="C43" s="43" t="s">
         <v>95</v>
@@ -29852,7 +29849,7 @@
       <c r="A62" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="B62" s="61" t="s">
+      <c r="B62" s="60" t="s">
         <v>43</v>
       </c>
       <c r="C62" s="55" t="s">
@@ -31623,7 +31620,7 @@
       <c r="A85" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="B85" s="62" t="s">
+      <c r="B85" s="61" t="s">
         <v>667</v>
       </c>
       <c r="C85" s="59" t="s">
@@ -31700,7 +31697,7 @@
       <c r="A86" s="42" t="s">
         <v>711</v>
       </c>
-      <c r="B86" s="62" t="s">
+      <c r="B86" s="61" t="s">
         <v>668</v>
       </c>
       <c r="C86" s="59" t="s">

--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.11_blauwNuVerwijderd.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.11_blauwNuVerwijderd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC644438-9214-4DB3-A3E2-4FB43E2DF43E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFFC671-CA7C-4A44-AD04-DF75DF526428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -25133,8 +25133,8 @@
   <dimension ref="A1:Y94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -28925,7 +28925,7 @@
       <c r="A50" s="42" t="s">
         <v>699</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="28" t="s">
         <v>103</v>
       </c>
       <c r="C50" s="57" t="s">
@@ -29002,7 +29002,7 @@
       <c r="A51" s="42" t="s">
         <v>699</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C51" s="57" t="s">
@@ -29079,7 +29079,7 @@
       <c r="A52" s="42" t="s">
         <v>699</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="28" t="s">
         <v>115</v>
       </c>
       <c r="C52" s="58" t="s">
@@ -29156,7 +29156,7 @@
       <c r="A53" s="42" t="s">
         <v>699</v>
       </c>
-      <c r="B53" s="60" t="s">
+      <c r="B53" s="28" t="s">
         <v>40</v>
       </c>
       <c r="C53" s="57" t="s">

--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.11_blauwNuVerwijderd.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.11_blauwNuVerwijderd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFFC671-CA7C-4A44-AD04-DF75DF526428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0357B46-20D0-4ADD-A5A5-6250C9E6F71C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -25134,7 +25134,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -29310,7 +29310,7 @@
       <c r="A55" s="42" t="s">
         <v>699</v>
       </c>
-      <c r="B55" s="60" t="s">
+      <c r="B55" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C55" s="57" t="s">
